--- a/Backlog_Adminstateur.xlsx
+++ b/Backlog_Adminstateur.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\livreable1partie2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\VenteArbre\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7425" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -235,7 +235,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,8 +249,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,6 +276,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -279,19 +291,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Satisfaisant" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -576,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1495,8 +1510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1545,46 +1560,46 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1611,24 +1626,24 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
         <v>27</v>
       </c>
     </row>
